--- a/preprocess1.xlsx
+++ b/preprocess1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiksang/PycharmProjects/insta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiksang/Documents/GitHub/NokidZone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F473AD58-4DED-AC40-B687-AAD65D00BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B48199D-9A5B-E249-B912-B19971223FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15747,11 +15747,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3304" workbookViewId="0">
-      <selection activeCell="F3339" sqref="F3339"/>
+    <sheetView tabSelected="1" topLeftCell="A3009" workbookViewId="0">
+      <selection activeCell="F3340" sqref="F3340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
